--- a/Evidencias de sustentacion/Formato Casos de Prueba.xlsx
+++ b/Evidencias de sustentacion/Formato Casos de Prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\gihtub\Evidencias de sustentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\Testing\Evidencias de sustentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD45B6-6879-4B79-B463-F06EBA4D5E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8820F7C-15A5-4F68-BF61-4686027C33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>ID REQUERIMIENTO</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Verificar que el sistema sea capaz de generar correos masivos.</t>
   </si>
   <si>
-    <t xml:space="preserve">El Login del sistema debe </t>
-  </si>
-  <si>
     <t>La interfaz si se ve de manera completa y agradable en cualquier tipo de dispositivo.</t>
   </si>
   <si>
@@ -236,6 +233,111 @@
   </si>
   <si>
     <t>Los formularios de registro y editar la venta, cumplen con las validaciones necesarias para su funcionamiento completo</t>
+  </si>
+  <si>
+    <t>El login cumple con las validaciones dadas</t>
+  </si>
+  <si>
+    <t>El correo de verificacion del usuario si se envia de manera correcta, asegurando el registro exitoso del usuario</t>
+  </si>
+  <si>
+    <t>Se listan de manera completa todos los usuarios que se logearon en el sistema recientemente</t>
+  </si>
+  <si>
+    <t>El sistema si envia correos masivos, de maera rapida.</t>
+  </si>
+  <si>
+    <t>El sistema si envia de manera completa los correos</t>
+  </si>
+  <si>
+    <t>El sistema si crea la compra, completa, con todfos sus campos .</t>
+  </si>
+  <si>
+    <t>Se evidencia que la compra registrada, si se puede editar, sin ningun error</t>
+  </si>
+  <si>
+    <t>El sistema si muestra todas las compras, listadas en una tabla</t>
+  </si>
+  <si>
+    <t>El sistema si elimina la compra, de amera completa.</t>
+  </si>
+  <si>
+    <t>El sistema si permite generar uan solicitud para un domiclio, de amnera exitosa</t>
+  </si>
+  <si>
+    <t>El sistema si permite editar los domicilios generados</t>
+  </si>
+  <si>
+    <t>El sistema si permite eliminar los domicilios generados</t>
+  </si>
+  <si>
+    <t>El sistema si lista los domicilios de cada usuario, perimiento una mejor organización de los datos.</t>
+  </si>
+  <si>
+    <t>El Login del sistema debe  validar los datos y el correos que cada usuario ingrese</t>
+  </si>
+  <si>
+    <t>El sisteme debe verificar que el usuario que se esta registrando si exista y no sea una cuenta falsa</t>
+  </si>
+  <si>
+    <t>El sistema debe mostar en uan tabla todos los usuario que recientemente se hayan registrado en el sistema</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de enviar correos, de manera masiva, en caso de necesitar enviar un correo a una gran cantidad de usuario al mismo tiempo</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar un correo de confirmacion al usuario registrado, que su registro ha sido completamente exitoso</t>
+  </si>
+  <si>
+    <t>El sistema debe poder permitir generar una compra atravez de un formulario</t>
+  </si>
+  <si>
+    <t>El sistema debe poder permitir solicitar un domicilio atravez de un formulario</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir poder editar la compra</t>
+  </si>
+  <si>
+    <t>El sistema debe listar toodas la comrpas generadas en una tabla, de manera organizada.</t>
+  </si>
+  <si>
+    <t>El sistema debe poder eliminar la compra generada</t>
+  </si>
+  <si>
+    <t>El sistema debe poder permitir editar el domicilio solixcitado por el usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe poder permitir el domicilio solciitado por el usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir listar todos los domicilios solicitados por los usuario, de manera organizada</t>
+  </si>
+  <si>
+    <t>1. debe haber una tabla con las ventas listadas.</t>
+  </si>
+  <si>
+    <t>1. debe haber una tabla con las ventas listadas. 2 debe haber un formulario con todos sus campos validados 3. la funcionalidad debe ser acorde a lo necesario</t>
+  </si>
+  <si>
+    <t>1 .debe haber un formulario con todos sus campos validados 2. la funcionalidad debe ser acorde a lo necesario</t>
+  </si>
+  <si>
+    <t>1. debe existir un login 2. el login debe tener todos sus campos validados 3. debe haber uan funcion para enviar el correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. debe haber una tabla con las usuarios listados. </t>
+  </si>
+  <si>
+    <t>1. debe haber un registro de todos los correos. 2 dbee haber un formulario para enviar corres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. debe haber una tabla con las ventas listadas. </t>
+  </si>
+  <si>
+    <t>1. debe haber una tabla con los domicilios listadas. 2 debe haber un formulario con todos sus campos validados 3. la funcionalidad debe ser acorde a lo necesario</t>
+  </si>
+  <si>
+    <t>1. debe haber una tabla con los domicilios listadas.2. debe haber un boton para eliminar</t>
   </si>
 </sst>
 </file>
@@ -331,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -717,11 +819,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -813,6 +924,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,43 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1128,18 +1245,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
@@ -1183,7 +1300,7 @@
       <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="19">
@@ -1192,17 +1309,17 @@
       <c r="D9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>30</v>
@@ -1218,11 +1335,11 @@
       </c>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="48.75" customHeight="1">
+    <row r="10" spans="1:13" ht="87" customHeight="1">
       <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="19">
@@ -1231,15 +1348,17 @@
       <c r="D10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>30</v>
@@ -1254,11 +1373,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="66" customHeight="1">
+    <row r="11" spans="1:13" ht="95.25" customHeight="1">
       <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="19">
@@ -1267,15 +1386,17 @@
       <c r="D11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>30</v>
@@ -1294,7 +1415,7 @@
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="19">
@@ -1303,15 +1424,17 @@
       <c r="D12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="40" t="s">
+      <c r="F12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1326,11 +1449,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="108.75" customHeight="1">
+    <row r="13" spans="1:13" ht="85.5" customHeight="1">
       <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="19">
@@ -1339,15 +1462,17 @@
       <c r="D13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>71</v>
+      <c r="H13" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1362,11 +1487,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="49.5" customHeight="1">
+    <row r="14" spans="1:13" ht="84" customHeight="1">
       <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="19">
@@ -1375,14 +1500,18 @@
       <c r="D14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="G14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
       </c>
@@ -1396,11 +1525,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="70.5" customHeight="1">
+    <row r="15" spans="1:13" ht="80.25" customHeight="1">
       <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="19">
@@ -1409,12 +1538,18 @@
       <c r="D15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
       </c>
@@ -1428,11 +1563,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="48.75" customHeight="1">
+    <row r="16" spans="1:13" ht="81" customHeight="1">
       <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="19">
@@ -1441,12 +1576,18 @@
       <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
       </c>
@@ -1460,11 +1601,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="62.25" customHeight="1">
+    <row r="17" spans="1:12" ht="99" customHeight="1">
       <c r="A17" s="24">
         <v>9</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="19">
@@ -1473,12 +1614,18 @@
       <c r="D17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
       </c>
@@ -1492,11 +1639,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="50.25" customHeight="1">
+    <row r="18" spans="1:12" ht="79.5" customHeight="1">
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="19">
@@ -1505,12 +1652,18 @@
       <c r="D18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="I18" s="21" t="s">
         <v>30</v>
       </c>
@@ -1524,11 +1677,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="69" customHeight="1">
+    <row r="19" spans="1:12" ht="91.5" customHeight="1">
       <c r="A19" s="24">
         <v>11</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="19">
@@ -1537,12 +1690,18 @@
       <c r="D19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="I19" s="21" t="s">
         <v>30</v>
       </c>
@@ -1556,11 +1715,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="63.75" customHeight="1">
+    <row r="20" spans="1:12" ht="86.25" customHeight="1">
       <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="19">
@@ -1569,12 +1728,18 @@
       <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="21" t="s">
         <v>30</v>
       </c>
@@ -1588,11 +1753,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="33.75" customHeight="1">
+    <row r="21" spans="1:12" ht="57" customHeight="1">
       <c r="A21" s="24">
         <v>13</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="19">
@@ -1601,12 +1766,18 @@
       <c r="D21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
       </c>
@@ -1620,11 +1791,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="57" customHeight="1">
+    <row r="22" spans="1:12" ht="77.25" customHeight="1">
       <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="19">
@@ -1633,12 +1804,18 @@
       <c r="D22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
       </c>
@@ -1652,11 +1829,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="50.25" customHeight="1">
+    <row r="23" spans="1:12" ht="94.5" customHeight="1">
       <c r="A23" s="24">
         <v>15</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="19">
@@ -1665,12 +1842,18 @@
       <c r="D23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
       </c>
@@ -1684,11 +1867,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="71.25" customHeight="1">
+    <row r="24" spans="1:12" ht="99" customHeight="1">
       <c r="A24" s="24">
         <v>16</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="19">
@@ -1697,12 +1880,18 @@
       <c r="D24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" s="21" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1909,7 @@
       <c r="A25" s="24">
         <v>18</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="19">
@@ -1729,12 +1918,18 @@
       <c r="D25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="I25" s="21" t="s">
         <v>30</v>
       </c>
@@ -1748,11 +1943,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="57" customHeight="1">
+    <row r="26" spans="1:12" ht="79.5" customHeight="1">
       <c r="A26" s="24">
         <v>19</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="19">
@@ -1761,12 +1956,18 @@
       <c r="D26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I26" s="31" t="s">
         <v>30</v>
       </c>
@@ -1782,7 +1983,7 @@
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1">
       <c r="B27" s="28"/>
-      <c r="F27" s="45"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
